--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1047.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1047.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>3.080397738588302</v>
+        <v>1.106917023658752</v>
       </c>
       <c r="B1">
-        <v>2.410390349791352</v>
+        <v>1.588415741920471</v>
       </c>
       <c r="C1">
-        <v>2.063168643151338</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>1.813504825344054</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>1.504745632702205</v>
+        <v>1.127306938171387</v>
       </c>
     </row>
   </sheetData>
